--- a/Excel/Carga DB Postgres/Playa - CARGADO.xlsx
+++ b/Excel/Carga DB Postgres/Playa - CARGADO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18912" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -402,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -414,7 +417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Carga DB Postgres/Playa - CARGADO.xlsx
+++ b/Excel/Carga DB Postgres/Playa - CARGADO.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>idplaya</t>
   </si>
@@ -24,10 +24,13 @@
     <t>playa</t>
   </si>
   <si>
-    <t>Playa Sarmiento</t>
+    <t>Playa-Sarmiento</t>
   </si>
   <si>
-    <t>Playa Rio Cuarto</t>
+    <t>Playa-Rio Cuarto</t>
+  </si>
+  <si>
+    <t>Playa-Compactacion</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -367,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -392,6 +395,14 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
